--- a/Internship Notes.xlsx
+++ b/Internship Notes.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laure\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-laprin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C76C862-6B61-4761-B153-6024B36649BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD0DABE-09F6-49A8-8930-6CE717641D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{B6D28358-6747-4C62-B0EF-D3853314F276}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{B6D28358-6747-4C62-B0EF-D3853314F276}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NEO Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Blazor" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="129">
   <si>
     <t>Definition</t>
   </si>
@@ -143,7 +143,283 @@
     <t>VPN</t>
   </si>
   <si>
-    <t>connects you to corpnet</t>
+    <t>connects you to corpnet (already installed if corp computer)</t>
+  </si>
+  <si>
+    <t>RPS</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regression prevention system, </t>
+  </si>
+  <si>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>helping them remove old dotnet versions on machines for security reasons</t>
+  </si>
+  <si>
+    <t>acronymns</t>
+  </si>
+  <si>
+    <t>Glossary</t>
+  </si>
+  <si>
+    <t>CLR Terms</t>
+  </si>
+  <si>
+    <t>pull request</t>
+  </si>
+  <si>
+    <t>domestic cat duty</t>
+  </si>
+  <si>
+    <t>Def'n</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>DevDiv Repos</t>
+  </si>
+  <si>
+    <t>MSBuild</t>
+  </si>
+  <si>
+    <t>user-facing docs</t>
+  </si>
+  <si>
+    <t>for dev's docs</t>
+  </si>
+  <si>
+    <t>Distribution Groups</t>
+  </si>
+  <si>
+    <t>DB Grps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email lists you can join </t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Link to find guides on microsoft products</t>
+  </si>
+  <si>
+    <t>Vaca/Sick Time</t>
+  </si>
+  <si>
+    <t>Vacation &amp; Sick Time Reporting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search </t>
+  </si>
+  <si>
+    <t>if you don't know where to find something try here</t>
+  </si>
+  <si>
+    <t>RefWeb</t>
+  </si>
+  <si>
+    <t>Find It</t>
+  </si>
+  <si>
+    <t>tips for finding stuff inside Microsoft</t>
+  </si>
+  <si>
+    <t>GIT Tips &amp; Tricks</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>slides</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>link to find mandatory training to complete</t>
+  </si>
+  <si>
+    <t>Visit Microsoft Learning</t>
+  </si>
+  <si>
+    <t>Benefits</t>
+  </si>
+  <si>
+    <t>interns get medical, gyms, and care benefits they will email you to enroll don't worry about finding a link</t>
+  </si>
+  <si>
+    <t>MSRC</t>
+  </si>
+  <si>
+    <t>microsoft security response center, release with security-related bugfixes</t>
+  </si>
+  <si>
+    <t>Org Chart</t>
+  </si>
+  <si>
+    <t>You can either click the link attached or go to microsoft teams, and click organization</t>
+  </si>
+  <si>
+    <t>Reply All</t>
+  </si>
+  <si>
+    <t>"culture of openness", it's not stated anywhere but people tend to reply all to emails to not repeat things and to share with others their thoughts. Get in the practice of reply all and filtering your email.</t>
+  </si>
+  <si>
+    <t>General Information</t>
+  </si>
+  <si>
+    <t>Acronyms/Definitions</t>
+  </si>
+  <si>
+    <t>ResolveAssemblyReference - a task in MSBuild common targets</t>
+  </si>
+  <si>
+    <t>RAR</t>
+  </si>
+  <si>
+    <t>scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">these scores determine a priority </t>
+  </si>
+  <si>
+    <t>back port</t>
+  </si>
+  <si>
+    <t>microsoft security fix or update and when they use this in a meeting it means that they are looking at secruity vulnerabilities</t>
+  </si>
+  <si>
+    <t>Microsoft services response center, does security</t>
+  </si>
+  <si>
+    <t>Support Tiers</t>
+  </si>
+  <si>
+    <t>Tier 1: people who talk to the customers, Tier 3: team within DevDiv who are super knowledgeable about our products and talk to Tier 1 who talk to customers</t>
+  </si>
+  <si>
+    <t>Rebase PR</t>
+  </si>
+  <si>
+    <t>make sure to rebase the merge if you're changing it a lot instead of deleting it and creating a new one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to Test </t>
+  </si>
+  <si>
+    <t>Code Style they don't tell you</t>
+  </si>
+  <si>
+    <t>local variables start with a  lower case and then they use camel case, always us brackets on new lines even if it's one line in the if block, put a space after // in the comments, start comments with capitalization</t>
+  </si>
+  <si>
+    <t>How to pull from a orign repo when you're on a forked repo</t>
+  </si>
+  <si>
+    <t>StackOverFlow</t>
+  </si>
+  <si>
+    <t>How to exit Vim</t>
+  </si>
+  <si>
+    <t>type ":q" without the quotes. Also make sure you're in insert mode which</t>
+  </si>
+  <si>
+    <t>Blazor Information</t>
+  </si>
+  <si>
+    <t>error with namespace</t>
+  </si>
+  <si>
+    <t>if the package you are using is similar to the  name of the project it will not compile because the namespace will be different. For example if trying to use Blazor.FileReader and you have named your project App.Blazor it almost replaces the "Blazor" that FileReader is in with the "Blazor" from your app so it no longer can access anything from the provided Blazor library. To Fix: change project name or change route namespace and the _imports.Razor</t>
+  </si>
+  <si>
+    <t>File Upload</t>
+  </si>
+  <si>
+    <t>You cannot directly access a user's local disk. So you cannot use regular FileReader classes that you would use in C#</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>How TO</t>
+  </si>
+  <si>
+    <t>Blazor.FileREader</t>
+  </si>
+  <si>
+    <t>DO NOT DO A PROJECT REFERENCE FOR Blazor.FileReader</t>
+  </si>
+  <si>
+    <t>I spent so long trying to figure out why it wasn't working and the project that the demo is referencing has some sort of error or missing files so you must install theNuget Package instead</t>
+  </si>
+  <si>
+    <t>Errors that say something along the lines of Monitors can't wait or no wait on monitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is because that blazor is single threading so if you have any sort of waiting call it blocks the entire method </t>
+  </si>
+  <si>
+    <t>Error from file reading that says something along the lines of cannot read past the end of the stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't know why this happens, but I know to solve it you have to copy the stream that Blazor.FileReader gives you into a memorystream and then set the position of the memory stream to 0 to reset it </t>
+  </si>
+  <si>
+    <t>Dom Events</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Blazor University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link </t>
+  </si>
+  <si>
+    <t>Blazor Workshop</t>
+  </si>
+  <si>
+    <t>Blazor Errors</t>
+  </si>
+  <si>
+    <t>Blazor Components</t>
+  </si>
+  <si>
+    <t>use this Nuget package for structures in Blazor like Trees</t>
+  </si>
+  <si>
+    <t>Radzen</t>
+  </si>
+  <si>
+    <t>cannot convert from methodgroup to eventcallback</t>
+  </si>
+  <si>
+    <t>git Issue</t>
+  </si>
+  <si>
+    <t>The git issue explains why this happens but you have to add in the html an explicit call to the method for example: Expand="@((TreeExpandEventArgs args) =&gt; {OnExpand(args);}) will compile but Expand="@OnExpand" will not compile</t>
+  </si>
+  <si>
+    <t>ILSpy</t>
+  </si>
+  <si>
+    <t>download from app store on windows. Lets you go through .dll files</t>
+  </si>
+  <si>
+    <t>Error with something not showing in the namespace and you have no idea what namespace it should be in</t>
+  </si>
+  <si>
+    <t>go to ILSpy and drag the .dll of the nuget package you are using into the tree section. Click the magnifying class and search for the name of the property you are using. For example if you are using the Radzen nuget package and it isn't recognize TreeEventArgs search for TreeEventArgs in the magnifying class and it will show you what namespace it belongs to and that namespace is what you use for a using statement. If it's not nowhere in the .dll then you didn't download the correct package or you may have a spelling error in the property youwant</t>
   </si>
 </sst>
 </file>
@@ -173,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +459,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -212,6 +494,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -528,23 +815,517 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3126C88D-5357-4EBA-9C38-A565629652D3}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView zoomScale="96" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A26:D26"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{17381890-FA73-4563-B010-A4DDCD72CD24}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{9B298955-43A5-42A3-8C06-FC6C7CA56C09}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{101742B5-CAF5-4992-B9E0-376E0842FA7E}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{F4BDBCCE-9774-475E-94F4-A1E189E9F248}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{AAB7E883-BA69-4C39-ACE4-32D974086B26}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{D74A068B-032C-43F1-B25E-DD66C8063670}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{1D8E0CCD-6161-4A47-99CB-39ADD99E7422}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{A8A2467A-EE02-427F-84E4-5AAA31A2838A}"/>
+    <hyperlink ref="C32" r:id="rId9" xr:uid="{CBD72EB0-3819-4222-B5F5-3D063A52F74B}"/>
+    <hyperlink ref="F8" r:id="rId10" xr:uid="{81CDCFA3-88AD-4A21-8E6C-94A372A529AD}"/>
+    <hyperlink ref="C33" r:id="rId11" xr:uid="{1F93CC78-88DA-4BE9-8FF2-17CA7FE61D6C}"/>
+    <hyperlink ref="C34" r:id="rId12" xr:uid="{B60DDCCE-B154-49D4-BE79-10F467264E5F}"/>
+    <hyperlink ref="D5" r:id="rId13" xr:uid="{ECE3E60F-7824-4555-990F-B8EFB27522B4}"/>
+    <hyperlink ref="C10" r:id="rId14" xr:uid="{CF939EDB-7277-42E0-B61A-F89E02CE9209}"/>
+    <hyperlink ref="C27" r:id="rId15" xr:uid="{8E27EDE4-A8E0-4657-B4DB-25EAA48B09A4}"/>
+    <hyperlink ref="D27" r:id="rId16" xr:uid="{2F3D93E8-F86A-4995-A01A-13A60BCD934A}"/>
+    <hyperlink ref="C38" r:id="rId17" location="Domestic%20cat%20duty&amp;section-id=%7B7C9DCB6B-73B7-432E-B78E-DB5A6826475D%7D&amp;page-id=%7BF8A33ED5-DC7D-45FB-8628-1DA58C1D836E%7D&amp;end" xr:uid="{2A6E4FF8-5565-4A90-8E29-47FD5F0409D2}"/>
+    <hyperlink ref="C8" r:id="rId18" xr:uid="{E534C163-0483-4971-BFB3-2EC5DC656241}"/>
+    <hyperlink ref="C11" r:id="rId19" xr:uid="{DE13BA7B-504F-45A9-A85D-FB7FF17C5855}"/>
+    <hyperlink ref="E6" r:id="rId20" xr:uid="{CD954CF4-FFF3-4DB0-92A9-911F9122A9EB}"/>
+    <hyperlink ref="F6" r:id="rId21" xr:uid="{A81026A0-E9BF-46DF-8D02-9899EA31E263}"/>
+    <hyperlink ref="C12" r:id="rId22" xr:uid="{9246058F-4CA6-4FDE-A129-81777559F7C9}"/>
+    <hyperlink ref="C13" r:id="rId23" xr:uid="{5573F4B1-3707-4B3F-BD00-66EFC159EAD1}"/>
+    <hyperlink ref="C14" r:id="rId24" display="https://tar/Common/Home.aspx" xr:uid="{CBB1FDAE-0CBF-42EC-989A-C8ED9C88CDB2}"/>
+    <hyperlink ref="C28" r:id="rId25" display="https://nam06.safelinks.protection.outlook.com/?url=https%3A%2F%2Fmicrosoft.sharepoint.com%2Fsites%2Frefwebhub&amp;data=02%7C01%7Ct-laprin%40microsoft.com%7Cead59ad3e1864ea68ee708d803fbf1c0%7C72f988bf86f141af91ab2d7cd011db47%7C1%7C0%7C637263727925613497&amp;sdata=hbnbf%2Be0%2BL8FvXK8pY1uiHCX7kfLp7xMpjCFbQUUALc%3D&amp;reserved=0" xr:uid="{A9D2D34B-EB41-484B-ADC2-6309FC3DDCF1}"/>
+    <hyperlink ref="D28" r:id="rId26" display="https://nam06.safelinks.protection.outlook.com/?url=https%3A%2F%2Fmicrosoft.sharepoint.com%2Fsites%2Fmsw%2F&amp;data=02%7C01%7Ct-laprin%40microsoft.com%7Cead59ad3e1864ea68ee708d803fbf1c0%7C72f988bf86f141af91ab2d7cd011db47%7C1%7C0%7C637263727925623498&amp;sdata=FqhBNrszFYpkigEgreZhSorwoHg%2FTitW7c%2FM%2BEzyrkE%3D&amp;reserved=0" xr:uid="{5A5EC98C-1360-46F9-AFFE-34C04E4D16AD}"/>
+    <hyperlink ref="E28" r:id="rId27" display="https://nam06.safelinks.protection.outlook.com/?url=https%3A%2F%2Fcomm.microsoft.com%2FPoliteMail223%2Fdefault.aspx%3Fpage%3DdIiEz0nRZUOnF1SNq9h_cg%26ref_id%3DFeF8efUJCEyjlaaQbfBILw&amp;data=02%7C01%7Ct-laprin%40microsoft.com%7Cead59ad3e1864ea68ee708d803fbf1c0%7C72f988bf86f141af91ab2d7cd011db47%7C1%7C0%7C637263727925623498&amp;sdata=g3bKGmYPWlVoXL9CYfx%2BYbB3siXUq32ikjjODY8x2Q4%3D&amp;reserved=0" xr:uid="{8CDB32DB-E5EA-47CF-AAD7-9468E9107358}"/>
+    <hyperlink ref="D3" r:id="rId28" display="https://nam06.safelinks.protection.outlook.com/?url=https%3A%2F%2Fmsit.microsoftstream.com%2Fvideo%2F10804c47-e5eb-4c7a-b462-f79772bf2f7b&amp;data=02%7C01%7Ct-laprin%40microsoft.com%7Cead59ad3e1864ea68ee708d803fbf1c0%7C72f988bf86f141af91ab2d7cd011db47%7C1%7C0%7C637263727925693465&amp;sdata=9FOsgguaK7bhsmD8nKgIwJAKntT1FQpjzshx5qIN%2BOw%3D&amp;reserved=0" xr:uid="{AF4389EB-8217-4D1C-8ADE-4D5E86DDA2E6}"/>
+    <hyperlink ref="E3" r:id="rId29" display="https://nam06.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevp.cloudapp.net%2Fapi%2Fassetdownload%2Facademy%2FCatalog%2FAEVD-3-72642%2Fd81677e8f83b456594fcbfd9fe8736fd.pptx&amp;data=02%7C01%7Ct-laprin%40microsoft.com%7Cead59ad3e1864ea68ee708d803fbf1c0%7C72f988bf86f141af91ab2d7cd011db47%7C1%7C0%7C637263727925703461&amp;sdata=KztFt52MVKb0yO028x7HCyEISp%2FNr9p91ZPHwvE8d1Y%3D&amp;reserved=0" xr:uid="{40027316-F3AF-4003-9706-B6F80701CF19}"/>
+    <hyperlink ref="F3" r:id="rId30" display="https://nam06.safelinks.protection.outlook.com/?url=https%3A%2F%2Fmsit.microsoftstream.com%2Fvideo%2Fce4aebfb-3371-4468-a8b4-144b57e238ee&amp;data=02%7C01%7Ct-laprin%40microsoft.com%7Cead59ad3e1864ea68ee708d803fbf1c0%7C72f988bf86f141af91ab2d7cd011db47%7C1%7C0%7C637263727925693465&amp;sdata=gUJBdetj7ipd6roC9d%2FjTZjAcu4Tmqadtw038IwpuMc%3D&amp;reserved=0" xr:uid="{A08E2B94-DE38-4FDA-B83B-080FCCD590A1}"/>
+    <hyperlink ref="C17" r:id="rId31" display="https://nam06.safelinks.protection.outlook.com/?url=https%3A%2F%2Fmicrosoft.sharepoint.com%2Fsites%2Finfopedia&amp;data=02%7C01%7Ct-laprin%40microsoft.com%7Cead59ad3e1864ea68ee708d803fbf1c0%7C72f988bf86f141af91ab2d7cd011db47%7C1%7C0%7C637263727925663480&amp;sdata=r1RTOegysvGa0aXJFEjW5zZ%2BqliL7fnkRxnc8rA1nyE%3D&amp;reserved=0" xr:uid="{94C9DECC-81E7-4420-BC0F-0C86E93D7619}"/>
+    <hyperlink ref="C15" r:id="rId32" xr:uid="{1B4A3A25-BFA1-4CED-A89F-3166DA1F32E6}"/>
+    <hyperlink ref="C40" r:id="rId33" xr:uid="{EC96479E-DB9E-406E-85DE-278BC787CC67}"/>
+    <hyperlink ref="E5" r:id="rId34" xr:uid="{04CAF8F7-7B7D-4AE5-884E-2DB8C70101CC}"/>
+    <hyperlink ref="C21" r:id="rId35" xr:uid="{867A5EBA-BD00-490E-B933-3A6CC8A6CDC5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358BDCE5-91BA-4BED-A17C-4AE833BEC0B4}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.05078125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.05078125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -553,170 +1334,155 @@
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>11</v>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>1</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>23</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>26</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>29</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>35</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{17381890-FA73-4563-B010-A4DDCD72CD24}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{9B298955-43A5-42A3-8C06-FC6C7CA56C09}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{101742B5-CAF5-4992-B9E0-376E0842FA7E}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{F4BDBCCE-9774-475E-94F4-A1E189E9F248}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{AAB7E883-BA69-4C39-ACE4-32D974086B26}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{D74A068B-032C-43F1-B25E-DD66C8063670}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{1D8E0CCD-6161-4A47-99CB-39ADD99E7422}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{A8A2467A-EE02-427F-84E4-5AAA31A2838A}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{CBD72EB0-3819-4222-B5F5-3D063A52F74B}"/>
-    <hyperlink ref="E9" r:id="rId10" xr:uid="{81CDCFA3-88AD-4A21-8E6C-94A372A529AD}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{1F93CC78-88DA-4BE9-8FF2-17CA7FE61D6C}"/>
-    <hyperlink ref="C14" r:id="rId12" xr:uid="{B60DDCCE-B154-49D4-BE79-10F467264E5F}"/>
-    <hyperlink ref="D5" r:id="rId13" xr:uid="{ECE3E60F-7824-4555-990F-B8EFB27522B4}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{CF939EDB-7277-42E0-B61A-F89E02CE9209}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{D7352BEC-A577-4A07-9C38-761FEC15FA0B}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{2CD1C8B6-8D57-4782-BC07-8E198C13ECEF}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{9AB275FA-6AB1-4C0F-92FB-E643594EE40F}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{07F48EF8-55FE-4328-9887-48F159EE69FB}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{169D687C-BE48-42EA-8615-74EBA4B8EFED}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{8F35C4BC-3361-4EE5-B3DC-C94FBC8718F3}"/>
+    <hyperlink ref="C3" r:id="rId7" xr:uid="{8AD10122-2A8B-45DB-872E-87D8DA691D66}"/>
+    <hyperlink ref="C15" r:id="rId8" xr:uid="{41C74FAA-3D29-4D99-A6B4-AD611D130FFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>